--- a/Outputs/Main/SDID_Results_Incomplete_Pathways_DTA.xlsx
+++ b/Outputs/Main/SDID_Results_Incomplete_Pathways_DTA.xlsx
@@ -249,10 +249,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0097179</v>
+        <v>-0.009306500000000001</v>
       </c>
       <c r="C2">
-        <v>0.0054645</v>
+        <v>0.0072605</v>
       </c>
       <c r="D2" s="1">
         <f>B2 - (1.96 * C2)</f>
@@ -269,10 +269,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0108668</v>
+        <v>0.0101393</v>
       </c>
       <c r="C3">
-        <v>0.0138347</v>
+        <v>0.008139</v>
       </c>
       <c r="D3" s="4">
         <f>B3 - (1.96 * C3)</f>
@@ -289,10 +289,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0031653</v>
+        <v>0.0026177</v>
       </c>
       <c r="C4">
-        <v>0.0037243</v>
+        <v>0.0031066</v>
       </c>
       <c r="D4" s="7">
         <f>B4 - (1.96 * C4)</f>
